--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_3/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_3/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.098</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.526</v>
+        <v>17.38</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.08599999999999999</v>
+        <v>0.799</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.906</v>
+        <v>12.88</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.326</v>
+        <v>0.865</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.669</v>
+        <v>9.773</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>16.93733183489292</v>
+        <v>4.124835836435006</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>30.61266228754849</v>
+        <v>23.67229052876709</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>34.47039610210776</v>
+        <v>25.95568278632582</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>12.67535645882054</v>
+        <v>-0.2370285624254898</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>27.39258955057172</v>
+        <v>24.59877285189122</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>31.700259617943</v>
+        <v>27.48648398538419</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>20.41516372505752</v>
+        <v>7.867139401224867</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>32.43415223000568</v>
+        <v>36.11297274956807</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>35.98939535941082</v>
+        <v>38.71139121066744</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>34.48193658802226</v>
+        <v>39.86780373939501</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>41.94250346006855</v>
+        <v>44.64113796498329</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>44.78750720054946</v>
+        <v>46.79772170888977</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>21.51404468265201</v>
+        <v>20.86705910137498</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>39.37118954307017</v>
+        <v>39.84013183741699</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>44.82208304432844</v>
+        <v>46.97756115702972</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>19.12103669647447</v>
+        <v>13.49935206658881</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>33.05147532227082</v>
+        <v>41.0944593544378</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36.93269256128876</v>
+        <v>47.80969801167069</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>14.4171043785898</v>
+        <v>8.520745993820167</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.46945129082603</v>
+        <v>36.7474239739138</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>33.79064002910678</v>
+        <v>44.16951501111723</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>22.34238753697034</v>
+        <v>15.04176659722254</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>34.64288364411352</v>
+        <v>51.75032639263864</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>38.21094033238226</v>
+        <v>59.49415327051524</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>36.56733857142282</v>
+        <v>57.99132510565991</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>44.27912458924912</v>
+        <v>67.31783419848213</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>47.19364315305188</v>
+        <v>74.14112497467652</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>23.59124691914488</v>
+        <v>27.81970203741884</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>41.92117118359158</v>
+        <v>66.55751743724265</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>47.36485133380518</v>
+        <v>72.57498320155648</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>25.44119080287143</v>
+        <v>18.46187937107488</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>39.77857852826309</v>
+        <v>50.96547131706095</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>43.8562931825328</v>
+        <v>59.49482608865573</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>20.72091333055371</v>
+        <v>14.39711834696864</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>36.21324467134979</v>
+        <v>48.73317636337406</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>40.7658700268437</v>
+        <v>55.64747001410014</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.43667049908868</v>
+        <v>24.6102885409518</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>42.12868118453496</v>
+        <v>66.3808565711329</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>45.88161467448745</v>
+        <v>76.43582375350951</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>44.40499476204367</v>
+        <v>84.03652779489761</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>52.38046674666871</v>
+        <v>93.63051112498498</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>55.44458641114925</v>
+        <v>101.3468110168057</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.83637413239412</v>
+        <v>40.92061115404488</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>49.71134428819283</v>
+        <v>86.30830087598579</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>55.45540916808449</v>
+        <v>94.51478211165507</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>19.40305732358308</v>
+        <v>8.508291737391472</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>33.52226785267613</v>
+        <v>43.32452249863382</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>37.36153814371997</v>
+        <v>46.17256036520458</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>15.60714779400092</v>
+        <v>7.685389707514592</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>30.83309345600816</v>
+        <v>47.00612925068999</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>35.11383221701944</v>
+        <v>49.63491654972443</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>23.58444422604376</v>
+        <v>20.88999312228611</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>36.02160713592737</v>
+        <v>64.67233043951336</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>39.5492016058825</v>
+        <v>68.09418268106144</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>37.81325736371606</v>
+        <v>64.38973764886143</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>45.45105770845956</v>
+        <v>71.04031192032028</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>48.30912940512947</v>
+        <v>73.98310425037184</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>24.36603443678057</v>
+        <v>29.05264355476395</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>42.84460620335912</v>
+        <v>65.38206239714319</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>48.26248986233897</v>
+        <v>71.2594584006583</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>21.1032796880638</v>
+        <v>4.937736233944179</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>35.44668174206967</v>
+        <v>42.54341947870435</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>39.30418862600254</v>
+        <v>47.63104081834501</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>16.89024269113091</v>
+        <v>3.32375804927773</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>32.41628694803042</v>
+        <v>40.87404111763601</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>36.70415207818212</v>
+        <v>46.55430580640396</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>25.01885797516817</v>
+        <v>13.80591481962671</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>37.70765854946725</v>
+        <v>60.78799100822691</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>41.24285931193396</v>
+        <v>66.99043272451895</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>39.42129669148769</v>
+        <v>63.54028082223878</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>47.28311981608798</v>
+        <v>73.91565309219354</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>50.20082733411975</v>
+        <v>77.4615997706499</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>25.997113900687</v>
+        <v>23.83806988950084</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>44.9035131792818</v>
+        <v>73.19025477065378</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>50.3100629407629</v>
+        <v>77.5408982218632</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>28.1009203322397</v>
+        <v>7.836439078691747</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>42.83003548121795</v>
+        <v>51.79181378002875</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>46.89540538979778</v>
+        <v>59.1312830639253</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>23.88739160271559</v>
+        <v>7.106175241375126</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>39.83275010210475</v>
+        <v>52.17008264027932</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>44.36591169682956</v>
+        <v>57.94478721977003</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>32.85443967331837</v>
+        <v>22.33295388356055</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>45.91585375977245</v>
+        <v>75.75621781822313</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>49.64703404394029</v>
+        <v>84.66369192776645</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>47.99108157063948</v>
+        <v>87.39760197600063</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>56.10538890370063</v>
+        <v>99.57783045693122</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>59.19849447916119</v>
+        <v>104.5781922554628</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>33.97142725162487</v>
+        <v>34.4297910648619</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>53.39821526105873</v>
+        <v>92.10647338462546</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>59.11921538792024</v>
+        <v>99.65293613476288</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>18.45492877890159</v>
+        <v>10.49867174539986</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>32.56273133213013</v>
+        <v>40.83380872883005</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>36.40746295124103</v>
+        <v>41.81463647892137</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>14.52160450821393</v>
+        <v>6.850422650992195</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.72903181217098</v>
+        <v>42.32923182277803</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>34.0143600418269</v>
+        <v>42.64051137522537</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>22.52818453901271</v>
+        <v>19.55441625961459</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>34.95052488264083</v>
+        <v>58.79254818377495</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>38.48139273888754</v>
+        <v>60.40211820243641</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>36.84006433514298</v>
+        <v>61.41061551136184</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>44.48163790203914</v>
+        <v>67.07279180077069</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>47.32622812492539</v>
+        <v>68.51201145606534</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>23.44713249279917</v>
+        <v>30.4867809573769</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>41.90203925625794</v>
+        <v>60.87583935843217</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>47.32745184367624</v>
+        <v>65.33825575911938</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>20.2826025831319</v>
+        <v>11.96948167285912</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>34.61739048174092</v>
+        <v>47.1422109863511</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>38.48086134200667</v>
+        <v>49.63790944631801</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>15.93757241088208</v>
+        <v>8.597278724197551</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>31.4479333933312</v>
+        <v>44.65310428166454</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>35.7411830862923</v>
+        <v>47.38046901641158</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>24.10104835296632</v>
+        <v>19.19319482478934</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>36.77755416634793</v>
+        <v>63.69269598965336</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>40.31673957116958</v>
+        <v>67.31635942679243</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>38.57934819738156</v>
+        <v>67.63262342914588</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>46.44865816002935</v>
+        <v>76.21545942625654</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>49.35171304001037</v>
+        <v>78.22950504430919</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>25.20442585511125</v>
+        <v>31.48926744531796</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>44.09118491981901</v>
+        <v>76.43374668922944</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>49.50625400059248</v>
+        <v>78.84302151421356</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>27.28582556817924</v>
+        <v>14.05393813323561</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>42.0046204224215</v>
+        <v>56.06962861191688</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>46.07799916018255</v>
+        <v>60.31076276109978</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>22.93720231294944</v>
+        <v>11.85172313060562</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>38.86597572909872</v>
+        <v>55.96668413607846</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>43.40676589407835</v>
+        <v>58.27013059743868</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>31.93459542526751</v>
+        <v>27.16103673748536</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>44.98251456731896</v>
+        <v>78.59030533491075</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>48.71945300605454</v>
+        <v>84.40834767119428</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>47.14904085593071</v>
+        <v>91.44928860100785</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>55.26756766602902</v>
+        <v>101.7954437193656</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>58.34917086576991</v>
+        <v>104.9738130034299</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>33.17580629416358</v>
+        <v>41.46368869725764</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>52.5808718226418</v>
+        <v>95.10553613348264</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>58.31333742599791</v>
+        <v>100.2482422597397</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>9.459453046996543</v>
+        <v>7.405011792539039</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>22.91874785587689</v>
+        <v>23.67850369163187</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>26.72784731576669</v>
+        <v>25.18571354983055</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>4.886174319987163</v>
+        <v>4.292311531812121</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>19.36692238830482</v>
+        <v>25.88806445096603</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>23.62034680392929</v>
+        <v>28.36417516865738</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>12.16963013188087</v>
+        <v>11.15560502525608</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>23.99087591301022</v>
+        <v>35.99067181161596</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>27.50041142976639</v>
+        <v>37.75756175813456</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>26.37889803212086</v>
+        <v>39.88616792162418</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>33.75421965132104</v>
+        <v>43.47747671846133</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>36.56384607842627</v>
+        <v>46.21221130140701</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>13.82275274092591</v>
+        <v>28.27297349333642</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>31.37420888145684</v>
+        <v>43.53117383997782</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>36.75566529903098</v>
+        <v>49.24868025479167</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>11.70978791941454</v>
+        <v>14.29404510624625</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>25.42205582017222</v>
+        <v>37.15386921981144</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.25531268659483</v>
+        <v>42.35123245127022</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>6.712306367743587</v>
+        <v>10.08058391308056</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>21.52451958439111</v>
+        <v>33.931456508661</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>25.79326722327804</v>
+        <v>40.29084284569348</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>14.18126138123009</v>
+        <v>14.64740975605221</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>26.28120556148841</v>
+        <v>46.41600596489342</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.80462009842944</v>
+        <v>52.56154066123423</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>28.55194028707711</v>
+        <v>51.66560569623607</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>36.17688249817816</v>
+        <v>59.6435489474477</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>39.05505447483287</v>
+        <v>66.52548175542655</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>15.98229747048674</v>
+        <v>29.27182235178185</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>34.00266917799664</v>
+        <v>62.79120653523205</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>39.37862391552916</v>
+        <v>66.74126764499427</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>18.51312819995186</v>
+        <v>20.66587304594396</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>32.63586233869011</v>
+        <v>49.09505529181828</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>36.66635935140762</v>
+        <v>55.81714213039356</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>13.49711716993032</v>
+        <v>16.11754165117661</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>28.753851380226</v>
+        <v>46.68685500829899</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>33.25416216245991</v>
+        <v>52.27232150699739</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>21.78830056189422</v>
+        <v>24.77453403181104</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>34.2830702451841</v>
+        <v>62.30420338406508</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>37.99191540250627</v>
+        <v>70.47418399078371</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>36.8780150685082</v>
+        <v>77.91208440084263</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>44.76785400981584</v>
+        <v>86.20539282549574</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>47.79531170674149</v>
+        <v>93.75166034501343</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>23.70294207597713</v>
+        <v>42.86818073741119</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>42.27366909254219</v>
+        <v>83.36812900645035</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>47.95073147669959</v>
+        <v>89.00533382758138</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>17.46244771847696</v>
+        <v>12.47892631757139</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>31.15603246056159</v>
+        <v>38.28116605833689</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>35.00361990413868</v>
+        <v>40.32213441706532</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>13.2142758919634</v>
+        <v>9.358477564598303</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>27.95186277507493</v>
+        <v>40.2908721644214</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>32.25670489792921</v>
+        <v>43.28740287270783</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>20.94175595167249</v>
+        <v>20.57340342589239</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>32.97652398069801</v>
+        <v>55.27991470145452</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>36.52914850755657</v>
+        <v>57.59921671430773</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>34.98594398244158</v>
+        <v>54.51615663024077</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>42.47900827257534</v>
+        <v>60.37180078733327</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>45.2882994556721</v>
+        <v>62.09541101901844</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>21.9937125184185</v>
+        <v>31.34144101762007</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>39.85927282112466</v>
+        <v>54.50317820057879</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>45.30009405181265</v>
+        <v>60.61919157422355</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>19.90764412367461</v>
+        <v>23.73722422410933</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>33.85643693199673</v>
+        <v>56.02400783197642</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>37.72217942638785</v>
+        <v>60.29807369848473</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>15.23231522210314</v>
+        <v>19.337377926081</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>30.30469598283999</v>
+        <v>52.40214906842344</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>34.61679481668723</v>
+        <v>57.75413322824473</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>23.15841537577477</v>
+        <v>29.14765793855528</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>35.47437462690672</v>
+        <v>70.67092314319746</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>39.03449290353731</v>
+        <v>75.91575467202797</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>37.35839954692543</v>
+        <v>75.24271419730391</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>45.10242636723227</v>
+        <v>85.22511777890995</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>47.9768935843717</v>
+        <v>90.85347883457364</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>24.35810936175083</v>
+        <v>44.20441963018853</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>42.69589877569511</v>
+        <v>86.44105775689226</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>26.19268028251052</v>
+        <v>23.8260718191979</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>40.5438460802367</v>
+        <v>60.59420128510834</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>44.60945017277923</v>
+        <v>67.33931384095131</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>21.50679536615612</v>
+        <v>19.93082540363172</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>37.01437805841414</v>
+        <v>58.59412983653486</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>41.56106658376352</v>
+        <v>64.08348889166338</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>30.21948084437964</v>
+        <v>32.86432996990516</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>42.9227167345346</v>
+        <v>79.00828182156427</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>46.67069534597709</v>
+        <v>87.24662507585495</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>45.1627296922923</v>
+        <v>94.16556851246901</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>53.16792248366156</v>
+        <v>104.6739556444532</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>56.19497673349942</v>
+        <v>111.0244604696472</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>31.57689983106208</v>
+        <v>50.23629436385704</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>50.45546139328161</v>
+        <v>99.071734643155</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>56.18684455282271</v>
+        <v>104.4314892525665</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-8.619316662462325</v>
+        <v>5.661265291605616</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>4.873004515190068</v>
+        <v>39.15313717517967</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>8.571591879367105</v>
+        <v>41.77507312503511</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-13.28532522036099</v>
+        <v>6.281925418362141</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>1.246308887633006</v>
+        <v>43.81900113800123</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>5.385850717689983</v>
+        <v>47.60351550417917</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>-6.951402324579774</v>
+        <v>17.66206940699331</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>4.918787592174091</v>
+        <v>59.95029570428116</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>8.333384130772899</v>
+        <v>62.87666741334955</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>8.382733969744578</v>
+        <v>53.5658935756193</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>15.6963748259442</v>
+        <v>60.9352738187855</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>18.39585170806658</v>
+        <v>62.26712417115212</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>-3.835029784666531</v>
+        <v>21.26895372012095</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>13.76799546112302</v>
+        <v>50.99112679685814</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>19.00503231503739</v>
+        <v>55.12764666970943</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-6.06747469011971</v>
+        <v>15.18323715730114</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>7.654816614292542</v>
+        <v>55.64472779084912</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>11.36197336083443</v>
+        <v>58.50807951391087</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>-11.12289529649576</v>
+        <v>10.85304658104339</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>3.713153150853962</v>
+        <v>51.52996454052845</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>7.848735885005155</v>
+        <v>56.12175665898467</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>-4.593800221545152</v>
+        <v>24.22586524045094</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>7.531965586414181</v>
+        <v>73.75817244238497</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>10.94479051888878</v>
+        <v>77.44278217694203</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>10.88391999924932</v>
+        <v>73.26326457568398</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>18.4249626209867</v>
+        <v>84.63425650053796</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>21.17783230416674</v>
+        <v>87.51318644572221</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-1.322741530080833</v>
+        <v>36.26121037585568</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>16.712564451985</v>
+        <v>85.6918155176003</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>21.92455765563849</v>
+        <v>86.4549045569338</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>0.7361409995107238</v>
+        <v>13.47501488790393</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>14.82740203711514</v>
+        <v>58.92697559072641</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>18.73039478344338</v>
+        <v>63.97196900690653</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>-4.302385053432957</v>
+        <v>8.592595601396088</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>10.93360321793538</v>
+        <v>55.38149207858899</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>15.29904783311185</v>
+        <v>60.13296601785383</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>3.016613652817718</v>
+        <v>25.49754878645955</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>15.49822642770196</v>
+        <v>80.08306568685731</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>19.0949707017711</v>
+        <v>86.39890374551368</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>19.17410615389473</v>
+        <v>88.81709656578859</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>26.95751370752784</v>
+        <v>101.2690913680685</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>29.86878864680622</v>
+        <v>103.8047382591145</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>6.398814696678976</v>
+        <v>38.97721313082884</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>24.93445370050971</v>
+        <v>95.98845203404461</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>30.44274152975812</v>
+        <v>99.08743597944559</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-11.97060755435692</v>
+        <v>-0.04811304373965442</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>1.430090698078267</v>
+        <v>16.0423468650655</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>5.175322763587914</v>
+        <v>16.36179731618254</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-16.88963833239994</v>
+        <v>-4.370583798112751</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-2.470271103577559</v>
+        <v>17.22128712433186</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>1.697946460971707</v>
+        <v>17.72586201908263</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-10.57346285533919</v>
+        <v>1.695094130855306</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>1.206636030678339</v>
+        <v>25.86635864292752</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>4.645965348928065</v>
+        <v>26.59579041551525</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>4.905730911598624</v>
+        <v>32.64791788561008</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>12.1355009045058</v>
+        <v>37.74841518058446</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>14.93018389153814</v>
+        <v>38.66715564249216</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-7.131755432805917</v>
+        <v>14.16544094342641</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>10.3750214203386</v>
+        <v>29.73984589826672</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>15.66756715448027</v>
+        <v>32.97608939961857</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-9.949763035456499</v>
+        <v>9.234340717618183</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>3.687269979578986</v>
+        <v>36.00082254270851</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>7.456281293866176</v>
+        <v>41.38948143381846</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>-15.2880910608696</v>
+        <v>5.592214387980851</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-0.5561592956266992</v>
+        <v>33.62733686870149</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>3.62619054560826</v>
+        <v>39.95653233209138</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-8.801344345868159</v>
+        <v>12.35410018224066</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>3.241278886300812</v>
+        <v>47.68322242801938</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>6.694213837827668</v>
+        <v>53.97073479263562</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>6.824986442982087</v>
+        <v>53.06236936415159</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>14.28856217294773</v>
+        <v>62.13621817566445</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>17.14841284914275</v>
+        <v>66.40661684240652</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-5.210574636971955</v>
+        <v>23.82755064160594</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>12.73957588865585</v>
+        <v>60.01664451209831</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>18.02825219011086</v>
+        <v>64.59111191686615</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-3.034997059994325</v>
+        <v>14.82993843403749</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>10.98481839899438</v>
+        <v>47.60569535844972</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>14.94215269655759</v>
+        <v>53.85573258750736</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-8.37660039849294</v>
+        <v>11.25271050342934</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>6.771089734035826</v>
+        <v>46.74723081917057</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>11.17610373535427</v>
+        <v>51.74350275333636</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>-1.09065367817621</v>
+        <v>23.08222880507872</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>11.32137997585136</v>
+        <v>64.49990202127995</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>14.95130292113929</v>
+        <v>72.0781649196074</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>15.21524297519618</v>
+        <v>80.63989216503751</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>22.92546871143642</v>
+        <v>90.50837369004638</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>25.93604693567754</v>
+        <v>94.44709024814523</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>2.587663712696283</v>
+        <v>38.91732806806625</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>21.05226853540738</v>
+        <v>82.90760320992671</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>26.62636120492819</v>
+        <v>89.45546108609713</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-9.594552814005908</v>
+        <v>-4.859527176491262</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>3.924947878919461</v>
+        <v>11.88506113105213</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>7.711752458784659</v>
+        <v>14.33672210429071</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-14.61884853584631</v>
+        <v>-6.319990379162366</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-0.06285970994991885</v>
+        <v>15.07708487417127</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>4.170237891911512</v>
+        <v>18.49528075967655</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-8.13360067215082</v>
+        <v>-0.7565092090238075</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>3.754729544418453</v>
+        <v>24.74149780366277</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>7.24854518097608</v>
+        <v>27.51387068132361</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>7.311999574274978</v>
+        <v>27.63764791818852</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>14.72248875403147</v>
+        <v>31.46055923975352</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>17.49448502034996</v>
+        <v>34.70018920875497</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-4.875128687608296</v>
+        <v>9.325439410245449</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>12.77900976663545</v>
+        <v>25.23782250107344</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>18.13278408762472</v>
+        <v>30.81782689310251</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-7.130095219570251</v>
+        <v>-4.016715736937602</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>6.634599318864453</v>
+        <v>18.10498637145915</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>10.44090081147809</v>
+        <v>23.4803611354828</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-12.57403462594714</v>
+        <v>-5.545832802675104</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>2.304458964666111</v>
+        <v>16.88955779864994</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>6.546954036817851</v>
+        <v>23.29950915528077</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-5.892627654196502</v>
+        <v>-2.653151901115642</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>6.266696664318381</v>
+        <v>28.56690807920639</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>9.769607959955252</v>
+        <v>34.96243293888745</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>9.697807965775823</v>
+        <v>35.09486281485833</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>17.35343880978309</v>
+        <v>43.41107308955799</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>20.18983072019817</v>
+        <v>50.90868809942631</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>-2.49945705370277</v>
+        <v>9.377708978150597</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>15.61070965085298</v>
+        <v>42.28618367444784</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>20.95249193676314</v>
+        <v>45.50269433484506</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-0.1650304866034418</v>
+        <v>-0.001715295322863852</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>13.99173740365762</v>
+        <v>27.5753496419605</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>17.99445927887514</v>
+        <v>36.16786914891416</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-5.588309653817603</v>
+        <v>-0.8338654027167998</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>9.714375413634166</v>
+        <v>28.24979942275042</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>14.18744922435361</v>
+        <v>35.68274918712345</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>1.89629972318199</v>
+        <v>6.04310482168621</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>14.43324589428092</v>
+        <v>42.85457913061079</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>18.12090145692859</v>
+        <v>52.97523039290365</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>18.17254011199663</v>
+        <v>59.6813708158389</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>26.08377761878243</v>
+        <v>68.89250487614254</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>29.07088483252593</v>
+        <v>77.78653941637205</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>5.385155669159118</v>
+        <v>20.21408706966693</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>24.02188483550577</v>
+        <v>60.595852552146</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>29.66394766005724</v>
+        <v>66.76836057789683</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>7.564578440768663</v>
+        <v>8.275585698058379</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>21.56193667871424</v>
+        <v>46.44710120422093</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>25.33887622182373</v>
+        <v>48.18120344800386</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>3.691824004284044</v>
+        <v>9.995369992729765</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>18.77108753426351</v>
+        <v>53.77921629673796</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>22.98915824300801</v>
+        <v>55.1755636621145</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>11.02294902515985</v>
+        <v>24.07191351980445</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>23.35223305126907</v>
+        <v>71.14859222934604</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>26.83240105451675</v>
+        <v>73.33500420513499</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>26.0384197053013</v>
+        <v>70.86668907918926</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>33.55585698527656</v>
+        <v>78.57020635997658</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>36.33721926063921</v>
+        <v>79.52638487223579</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>13.06826092615523</v>
+        <v>37.65970653547073</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>31.37564579162228</v>
+        <v>72.1004414263308</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>36.72825881062231</v>
+        <v>78.88449332786871</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>9.275115693513442</v>
+        <v>1.230604462247509</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>23.48970337135548</v>
+        <v>42.42310530191789</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>27.27473951859943</v>
+        <v>45.10781039302783</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>4.961615974854411</v>
+        <v>-0.8921704727220039</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>20.33338101073729</v>
+        <v>41.03326929343328</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>24.54567320509089</v>
+        <v>44.19053071476642</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>12.44957299449091</v>
+        <v>10.48477378958914</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>25.0239744990401</v>
+        <v>61.02305965490885</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>28.50139063989592</v>
+        <v>64.68795985743756</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>27.62695026446816</v>
+        <v>63.38717695741576</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>35.36725584442238</v>
+        <v>72.92914188753024</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>38.20615363603322</v>
+        <v>75.57161083640514</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>14.69506690288549</v>
+        <v>26.22225745511048</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>33.41999633591743</v>
+        <v>74.81634801209839</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>38.74536817062523</v>
+        <v>77.81156424741134</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>15.61955721896679</v>
+        <v>2.798684517494355</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>30.19257464127307</v>
+        <v>49.51494439740743</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>34.17740549942983</v>
+        <v>54.29541056723259</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>11.31435687758712</v>
+        <v>3.189351333768034</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>27.07437522233016</v>
+        <v>51.88294821737358</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>31.52294543188589</v>
+        <v>54.98360256419998</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>19.56405721538322</v>
+        <v>18.22187142560654</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>32.48474663735269</v>
+        <v>74.35102746770586</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>36.15022825358322</v>
+        <v>80.56249939048921</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>35.45234653671108</v>
+        <v>86.58758295389433</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>43.43124864232013</v>
+        <v>97.63079631092133</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>46.43090859807122</v>
+        <v>100.0648128902309</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>21.9529541563014</v>
+        <v>35.97727839021705</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>41.16286517284275</v>
+        <v>92.38921998619942</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>46.78898087553286</v>
+        <v>98.34745409207645</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-6.206790457147562</v>
+        <v>0.922490452182938</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>6.913060617900229</v>
+        <v>14.76702963036872</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>10.58043344869336</v>
+        <v>16.63888276090006</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-10.87948479216597</v>
+        <v>-3.357904342287295</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>3.274079943120547</v>
+        <v>13.90556900341528</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>7.353015555676848</v>
+        <v>15.69641281236039</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-4.502536592031845</v>
+        <v>1.179487557280297</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>7.056654184233032</v>
+        <v>23.03175976904074</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>10.41822394674464</v>
+        <v>25.46896057372879</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>10.34608860865836</v>
+        <v>28.43759521568352</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>17.45545027022158</v>
+        <v>31.81179076446895</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>20.20387162656034</v>
+        <v>35.05306034869501</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-1.627285230541716</v>
+        <v>7.293151736892028</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>15.58728016032169</v>
+        <v>24.89490919385322</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>20.74556533548266</v>
+        <v>28.23058659054832</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-4.473735122511997</v>
+        <v>4.425050751108493</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>8.866832618553872</v>
+        <v>26.47180746179931</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>12.56379759280946</v>
+        <v>33.69615973646116</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-9.539023442301229</v>
+        <v>3.420608664731342</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>4.907998923493047</v>
+        <v>25.05159632082588</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>9.008408903591487</v>
+        <v>32.78277743120651</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-3.016936880228215</v>
+        <v>7.121667914488521</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>8.788414430670251</v>
+        <v>37.61238187452059</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>12.16956613999444</v>
+        <v>45.91664373534488</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>11.97016798133509</v>
+        <v>41.1500889671851</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>19.29549709807522</v>
+        <v>49.90722605054498</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>22.10293299639563</v>
+        <v>54.88189954316061</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-0.003523657750832854</v>
+        <v>12.17787245676342</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>17.62612029987996</v>
+        <v>45.80774220715239</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>22.79159633201836</v>
+        <v>51.90236922858162</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>2.73200255888564</v>
+        <v>12.15101980176448</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>16.44518257120965</v>
+        <v>39.96471123488313</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>20.33030281622432</v>
+        <v>48.22024054509032</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>-2.301793524419168</v>
+        <v>10.67283608161564</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>12.54980445837437</v>
+        <v>39.35396141153841</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>16.87293858166754</v>
+        <v>45.94042359472177</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>5.036557962613827</v>
+        <v>19.78222765236626</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>17.20191709163703</v>
+        <v>56.08781932042982</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>20.76090860823684</v>
+        <v>65.83305042053239</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>20.68674731982218</v>
+        <v>68.9005819215743</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>28.25228151257279</v>
+        <v>78.73955667546386</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>31.22682847599212</v>
+        <v>86.23975489710801</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>8.142786567813097</v>
+        <v>28.52447811425495</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>26.27145940625</v>
+        <v>69.75508985935522</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>31.72465825339996</v>
+        <v>78.51521652649706</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>4.458950079955237</v>
+        <v>-6.328061158258148</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>17.94709426151902</v>
+        <v>17.891465411831</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>21.65126723866064</v>
+        <v>19.48288217747952</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-0.05905152984972517</v>
+        <v>-11.13704743962789</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>14.48487926146903</v>
+        <v>17.05868618989011</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>18.615420492661</v>
+        <v>18.7848871944585</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>6.971192174631568</v>
+        <v>-1.653227664486014</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>18.84448800126895</v>
+        <v>31.21273949523911</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>22.24689055636881</v>
+        <v>33.36503136580215</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>21.45604634209462</v>
+        <v>31.49238436808789</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>28.81171921565313</v>
+        <v>35.75905066702191</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>31.54162422634283</v>
+        <v>37.5863043167445</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>8.936843839980703</v>
+        <v>4.280423772941655</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>26.56697100590632</v>
+        <v>29.04946345587569</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>31.78698115105117</v>
+        <v>31.58803122708695</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>6.745643496244945</v>
+        <v>10.44502293187818</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>20.46013963896153</v>
+        <v>42.08854876748262</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>24.18489750471643</v>
+        <v>44.91183906122416</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>1.86133626013067</v>
+        <v>6.167795653092407</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>16.70455172233497</v>
+        <v>38.31811051049682</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>20.84648053357154</v>
+        <v>42.00418485593026</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>9.065868197490467</v>
+        <v>16.54351023713406</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>21.19057956569751</v>
+        <v>57.1474945076849</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>24.60379436239264</v>
+        <v>61.02428565674744</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>23.70003906220401</v>
+        <v>60.51285889400883</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>31.27898552808907</v>
+        <v>69.37426794864344</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>34.0628839811482</v>
+        <v>71.496618573579</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>11.18131896248926</v>
+        <v>27.01401895384559</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>29.23730780731293</v>
+        <v>69.58160153829091</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>34.45180400085247</v>
+        <v>70.46137041574413</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>14.09280483934623</v>
+        <v>13.84588018358815</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>28.18748670240978</v>
+        <v>52.26249230087534</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>32.1143762721906</v>
+        <v>56.96068196845421</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>9.221204853826272</v>
+        <v>9.023467231197291</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>24.47908010806234</v>
+        <v>49.07951360162112</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>28.85819521293732</v>
+        <v>52.55793770186455</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>17.26662428411998</v>
+        <v>24.27824351872458</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>29.75896050983864</v>
+        <v>71.74047736252834</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>33.36231607604218</v>
+        <v>77.93935308582886</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>32.58794144543798</v>
+        <v>83.0545543397542</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>40.41071382325001</v>
+        <v>93.59665770283814</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>43.37006664490177</v>
+        <v>97.03097508300378</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>19.48153662465054</v>
+        <v>36.14337472894296</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>38.05115174327568</v>
+        <v>87.48775028125135</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>43.57256482787022</v>
+        <v>90.69125801663462</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>12.55780578052308</v>
+        <v>3.59450085696394</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>25.86395831386597</v>
+        <v>18.05352475472168</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>29.5511625473508</v>
+        <v>19.50111262791064</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>8.348364097036445</v>
+        <v>-3.038304503900868</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>22.68479501513821</v>
+        <v>16.15701261526862</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>26.78413826511456</v>
+        <v>17.44637796797068</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>15.61200631641835</v>
+        <v>4.394001656514282</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>27.31337544510594</v>
+        <v>27.06450170300576</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>30.68942741318808</v>
+        <v>29.11093978486604</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>29.40878040887717</v>
+        <v>30.39974203559802</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>36.64062942546175</v>
+        <v>33.38845213381357</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>39.40510872429864</v>
+        <v>35.54453608187924</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>16.93659814197191</v>
+        <v>13.75120180933546</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>34.31940439500047</v>
+        <v>29.07593538965019</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>39.51319928017809</v>
+        <v>31.61609400063146</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>14.15402697291349</v>
+        <v>-1.647231212421257</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>27.68270398829834</v>
+        <v>17.17650217374393</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>31.39689074181339</v>
+        <v>21.90177089001002</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>9.558403894306352</v>
+        <v>-5.591386027134128</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>24.19015133075551</v>
+        <v>13.84746213489</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>28.30901350729697</v>
+        <v>19.37069720029775</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>16.9612455137117</v>
+        <v>-0.7972462651080185</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>28.91080310827196</v>
+        <v>26.65230859514525</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>32.30429479824416</v>
+        <v>32.44731989854063</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>30.93173528206335</v>
+        <v>30.65245840880918</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>38.38458091057611</v>
+        <v>36.60122874858148</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>41.21044679445671</v>
+        <v>39.45279378696738</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>18.4676829172491</v>
+        <v>7.400322597282289</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>36.27296301789347</v>
+        <v>36.11605344074204</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>41.47001942407995</v>
+        <v>38.59281882601351</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>21.60075323569033</v>
+        <v>9.14646611072699</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>35.52175098004145</v>
+        <v>36.12215021230338</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>39.43488103685826</v>
+        <v>41.39640499250672</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>16.97927082525813</v>
+        <v>3.45824693049007</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>32.03909917292139</v>
+        <v>32.06709456067075</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>36.39218502753883</v>
+        <v>36.0919834153067</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>25.24802738280014</v>
+        <v>14.60895379030573</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>37.57639737600382</v>
+        <v>50.39789457533826</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>41.15699975554868</v>
+        <v>57.14901567255993</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>39.90785157931454</v>
+        <v>62.28011102700397</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>47.61129649837109</v>
+        <v>69.78122183720326</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>50.60574343448303</v>
+        <v>73.04284963154466</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>26.83433931221323</v>
+        <v>25.5605752588538</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>45.16734937293368</v>
+        <v>63.59616835975443</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>50.66519116538763</v>
+        <v>67.77949044894346</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-1.125873115627272</v>
+        <v>-3.783983244523085</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>11.52560219272078</v>
+        <v>4.267081511654464</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>15.04823594384386</v>
+        <v>3.968705670434939</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-5.843268002803242</v>
+        <v>-7.880458121393094</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>7.789011401104503</v>
+        <v>4.26473151496187</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>11.70468167475497</v>
+        <v>4.332350687608804</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>0.4209241235598569</v>
+        <v>-4.936927021457411</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>11.54198863771503</v>
+        <v>10.96488684027484</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>14.76576236972958</v>
+        <v>11.1767088978339</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>14.33201496935801</v>
+        <v>13.44937799852125</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>21.2523596610614</v>
+        <v>14.04677490243375</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>23.89831899588116</v>
+        <v>16.72022261269478</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>2.805870575704532</v>
+        <v>3.051586638507388</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>19.32133487531828</v>
+        <v>12.55656927343903</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>24.27717167062995</v>
+        <v>12.52484516109561</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>0.6962320212704185</v>
+        <v>-5.547161183997776</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>13.56428588839973</v>
+        <v>7.297734630555819</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>17.11645153938501</v>
+        <v>9.542208563526339</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-4.369648910057379</v>
+        <v>-6.736106673040204</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>9.548330118728529</v>
+        <v>6.81285237598153</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>13.48802571694079</v>
+        <v>10.29752096367906</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>2.039161206745433</v>
+        <v>-5.551491892877447</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>13.40064031386736</v>
+        <v>15.46726171781125</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>16.64509738877479</v>
+        <v>18.66369847227462</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>16.11211017737813</v>
+        <v>18.4839663118454</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>23.24651320051429</v>
+        <v>22.95311021312138</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.95105392550349</v>
+        <v>25.75137968305151</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>4.579543912871003</v>
+        <v>1.562853461734655</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>21.50384709869331</v>
+        <v>24.37320301035854</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>26.46885799186053</v>
+        <v>24.17469341640169</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>8.580300946813182</v>
+        <v>6.903282118224881</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>21.83395596431557</v>
+        <v>27.88060881141519</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.57938798854589</v>
+        <v>31.05127322293086</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>3.50171294969271</v>
+        <v>2.288062242648298</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>17.84108007988713</v>
+        <v>25.04852250041199</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>22.00740464478299</v>
+        <v>27.58664621505363</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>10.78774554344741</v>
+        <v>10.04510767071124</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>22.52147925133463</v>
+        <v>39.36965581039747</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>25.94774316906674</v>
+        <v>43.87494150825351</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>25.49603341570198</v>
+        <v>49.6683173926729</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>32.87539883897494</v>
+        <v>55.4842206579078</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>35.74441925170243</v>
+        <v>59.28540846862651</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>13.36060950117209</v>
+        <v>19.94830550270234</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>30.80380398948265</v>
+        <v>51.87788106805644</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>36.06173084242627</v>
+        <v>53.54111707303574</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-9.745782496313126</v>
+        <v>13.71384584098762</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>3.800360456706791</v>
+        <v>33.12220450690982</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>7.613068970864063</v>
+        <v>35.7549735470413</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-14.83682218286314</v>
+        <v>6.351830783760189</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-0.2528352057488235</v>
+        <v>30.83936907815299</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>3.999440735245173</v>
+        <v>33.84287842911445</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-8.28132123389905</v>
+        <v>16.56365663491824</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>3.631261364060606</v>
+        <v>44.73446165522071</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>7.14129121208515</v>
+        <v>47.76446570432708</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>7.183989943595236</v>
+        <v>48.94007081373715</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>14.57261553519773</v>
+        <v>53.28985052422833</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>17.38730214518245</v>
+        <v>55.06821710594345</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-5.003291830449967</v>
+        <v>32.59464309646829</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>12.6963944567798</v>
+        <v>51.03981180549674</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>18.08577407785231</v>
+        <v>57.43856021773087</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-7.578821497014786</v>
+        <v>8.820227161653433</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>6.212061627225147</v>
+        <v>33.44366747663597</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>10.04852340503264</v>
+        <v>38.78559261331579</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-13.10692299617911</v>
+        <v>0.1870885041999237</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>1.799366687238027</v>
+        <v>25.19549786062293</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>6.066007426386776</v>
+        <v>31.12642741493404</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>-6.371209443610553</v>
+        <v>6.951988595282312</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>5.812280212824142</v>
+        <v>40.75155471500747</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>9.33570932544329</v>
+        <v>47.16316741420151</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>9.241402048191091</v>
+        <v>46.17868128308497</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>16.87443231987993</v>
+        <v>53.88499257727725</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>19.75702914041566</v>
+        <v>58.65806063817062</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>-2.952497463579334</v>
+        <v>21.45124431802276</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>15.20364161410688</v>
+        <v>56.26120944873446</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>20.5865414657807</v>
+        <v>60.02434601815473</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>-0.5957226620696332</v>
+        <v>18.31220300148558</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>13.59291268500998</v>
+        <v>48.61489797991649</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>17.620298825544</v>
+        <v>55.97597654808793</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>-6.110669824484418</v>
+        <v>9.929113118556568</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>9.225783957512455</v>
+        <v>41.82385548704285</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>13.7171864042855</v>
+        <v>47.35070120376528</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>1.432976819829143</v>
+        <v>21.2685906816856</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>13.99940538775045</v>
+        <v>60.91662226941972</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>17.70224246677804</v>
+        <v>69.85552723546374</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>17.73305826080733</v>
+        <v>77.21663109027618</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>25.62327328480463</v>
+        <v>85.55763097909795</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>28.65331437163788</v>
+        <v>91.15619089692606</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>4.937529984736813</v>
+        <v>38.00956500176139</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>23.62608704964537</v>
+        <v>80.08042447680333</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.30089486469706</v>
+        <v>86.50269171369843</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>11.97393373449148</v>
+        <v>14.97787226553062</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>25.51742125104083</v>
+        <v>42.32377859218028</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.24575370882773</v>
+        <v>45.46754468318204</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>7.885110497126952</v>
+        <v>11.62047766309474</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>22.49494312263982</v>
+        <v>43.71729225088023</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>26.64699640147109</v>
+        <v>46.18977059888336</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>15.24139027242914</v>
+        <v>23.82782040366185</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>27.17230568645884</v>
+        <v>59.48481776422425</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>30.59281055918887</v>
+        <v>63.27538895067701</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.3943767152611</v>
+        <v>63.24875425286548</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>36.74993000951056</v>
+        <v>68.25937988415708</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>39.53232034029885</v>
+        <v>71.66024477922603</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>16.67698280557258</v>
+        <v>31.59979312839859</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>34.42107313602332</v>
+        <v>62.36256724385527</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>39.67296972156853</v>
+        <v>68.29636744727706</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>13.56640632387871</v>
+        <v>7.916911358808896</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>27.3278258046023</v>
+        <v>39.05065358429341</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>31.0802360690824</v>
+        <v>44.97782918232994</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>9.084608457627525</v>
+        <v>5.374052414124572</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>23.98532413686768</v>
+        <v>37.05791485703668</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>28.15243633439933</v>
+        <v>43.0727764085421</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>16.57970637576777</v>
+        <v>14.34123514436386</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>28.75456696364444</v>
+        <v>54.20269289145831</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>32.18914011088739</v>
+        <v>61.29193898549332</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>30.89477933429451</v>
+        <v>57.5615457500832</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>38.46599845629613</v>
+        <v>66.73926037961516</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>41.30586659460809</v>
+        <v>69.86981766943742</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>18.1885100858926</v>
+        <v>21.52767486248846</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>36.34669312459353</v>
+        <v>64.49470351647778</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>41.59732991886757</v>
+        <v>70.12149535554802</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>20.64931597821404</v>
+        <v>9.89728557959144</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>34.79117906711195</v>
+        <v>47.34197380133298</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>38.74348689963088</v>
+        <v>55.25628566162924</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>16.175620035357</v>
+        <v>8.122635244078122</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>31.49052654300868</v>
+        <v>47.28937657555426</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>35.89367339090127</v>
+        <v>53.15731276209279</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>24.5045344413307</v>
+        <v>21.75800014292969</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>37.04737405657511</v>
+        <v>68.0095811709362</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>40.67053676207522</v>
+        <v>77.51443346187865</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>39.52074800234095</v>
+        <v>80.09696412626583</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>47.3384085531177</v>
+        <v>90.97450236842148</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>50.35325429531892</v>
+        <v>96.8509663425924</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>26.23140623303946</v>
+        <v>31.33175603278184</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>44.90139483888782</v>
+        <v>82.35533066126584</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>50.45615709190336</v>
+        <v>91.31339638302114</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>31.37771180852899</v>
+        <v>7.755011247965388</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>45.67286544456319</v>
+        <v>38.87983857654181</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>49.65428067708589</v>
+        <v>42.07413017610257</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>27.67251105236604</v>
+        <v>7.063691374956331</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>43.06044582601209</v>
+        <v>43.56140021868342</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>47.51342787421294</v>
+        <v>47.14575137443234</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>36.3359476202276</v>
+        <v>18.96543504045636</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>48.9056467130161</v>
+        <v>59.26388814582194</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>52.58045272917789</v>
+        <v>62.79820251512236</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>50.12713730056245</v>
+        <v>60.08798353001792</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>57.90600766079238</v>
+        <v>66.34371872382708</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>60.82780079578389</v>
+        <v>68.47907848567866</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>36.23834603349155</v>
+        <v>32.25877616977726</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>54.90569618067578</v>
+        <v>61.62149583870453</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>60.5373102860797</v>
+        <v>70.5606989609353</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>33.46664901280654</v>
+        <v>8.941097556360749</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>48.01819724503585</v>
+        <v>44.69123167038835</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>52.01664773703307</v>
+        <v>50.40879639364604</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>29.30177827874882</v>
+        <v>5.238958456839207</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>45.0284390965203</v>
+        <v>41.3526920417884</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>49.48620548661787</v>
+        <v>47.66238300866145</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>38.14984866734711</v>
+        <v>14.14446773905499</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>51.00373457280141</v>
+        <v>59.47179563593396</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>54.68427338108306</v>
+        <v>66.2516743001644</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>52.11464220727056</v>
+        <v>64.37921781972548</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>60.14748499808592</v>
+        <v>74.20875702981996</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>63.13789403736951</v>
+        <v>80.19837998492332</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>38.2334293890395</v>
+        <v>28.63058927861002</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>57.37927031185536</v>
+        <v>75.02086456971536</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>62.99323294882412</v>
+        <v>80.49130314342763</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>39.56686770227557</v>
+        <v>11.11338009921917</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>54.52814497151713</v>
+        <v>51.62459776813654</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>58.73518048309452</v>
+        <v>59.77869127440414</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>35.37782852853358</v>
+        <v>9.484559854827868</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>51.54726660152519</v>
+        <v>51.49564579166019</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>56.2506227934046</v>
+        <v>57.91652624365214</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>45.0209760894851</v>
+        <v>21.49844515106633</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>58.26917503370617</v>
+        <v>71.73064896567205</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>62.14604309246867</v>
+        <v>81.45755314989512</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>59.77691038479533</v>
+        <v>87.89893550561811</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>68.07787418277579</v>
+        <v>98.41749140130821</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>71.22669113582886</v>
+        <v>105.228659218984</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>45.29815825975293</v>
+        <v>38.66605824793792</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>64.99447594204049</v>
+        <v>91.84192274311344</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>70.92547969601804</v>
+        <v>100.0299142813003</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>82.84259963257527</v>
+        <v>16.15770418365873</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>98.34030839452478</v>
+        <v>38.41755946444349</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>102.7423617118306</v>
+        <v>41.78779790843809</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>80.24218421241709</v>
+        <v>19.14206622110336</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>96.89187319941654</v>
+        <v>46.94660988925017</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>101.8240737579688</v>
+        <v>51.08510763521571</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>91.9359306302991</v>
+        <v>26.23330112141104</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>105.5205973389979</v>
+        <v>57.12796504158266</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>109.5858806297483</v>
+        <v>60.73781552513357</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>103.5694982379378</v>
+        <v>58.41399191773344</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>112.0292307262116</v>
+        <v>63.46796434810543</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>115.2515582068795</v>
+        <v>65.65199957027194</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>87.1207194005793</v>
+        <v>38.53565376650583</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>107.2784722387869</v>
+        <v>58.31613392306312</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>113.4980842324315</v>
+        <v>67.3512858100575</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>85.05248061018366</v>
+        <v>18.17977951593535</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>100.8554648223272</v>
+        <v>45.6057959796988</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>105.2782312882876</v>
+        <v>51.95576574578794</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>81.96304742498076</v>
+        <v>20.70182369180902</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>99.01231223659062</v>
+        <v>48.92379355365297</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>103.9525912495305</v>
+        <v>56.16475507407849</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>93.85730881858923</v>
+        <v>23.21903929632629</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>107.7772202142105</v>
+        <v>59.65654873140792</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>111.8508647471608</v>
+        <v>66.95682093959927</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>105.7165553734305</v>
+        <v>64.04422179133142</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>114.4677824991862</v>
+        <v>72.75333783583395</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>117.7675361787672</v>
+        <v>79.22613203538862</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>89.26931639941151</v>
+        <v>35.32214099498103</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>109.9892848520564</v>
+        <v>72.36897535223504</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>116.1928640078651</v>
+        <v>78.46941068812059</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>90.78307549324769</v>
+        <v>21.22366383431767</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>107.0737727959597</v>
+        <v>52.89121465528089</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>111.7398063572963</v>
+        <v>61.43502178561373</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>87.56693261254156</v>
+        <v>24.85257481528136</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>105.1444864200693</v>
+        <v>58.38886141307491</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>110.370357774836</v>
+        <v>65.5148606863101</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>100.3509759266424</v>
+        <v>30.68680214245805</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>114.739379896315</v>
+        <v>71.53283036819795</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>119.0420335645159</v>
+        <v>81.53247285912826</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>113.1961777146557</v>
+        <v>87.49775058137337</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>122.2620630891067</v>
+        <v>96.41553843582821</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>125.7448961345001</v>
+        <v>103.7924550316944</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>96.08457233507499</v>
+        <v>45.73544129551684</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>117.4610137473815</v>
+        <v>88.89235992604105</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>124.0330214816284</v>
+        <v>97.2970520760349</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>26.38889486651046</v>
+        <v>10.20363791071753</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>40.66847394013955</v>
+        <v>39.64438418014723</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>44.63728789290504</v>
+        <v>43.01798601823523</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>22.58601467218047</v>
+        <v>7.504235066424178</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>37.97405474866315</v>
+        <v>41.07745498541989</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>42.40495850206398</v>
+        <v>43.9042219231321</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>31.08621323426017</v>
+        <v>19.082808030773</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>43.65373986205164</v>
+        <v>57.48401760395744</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>47.30575433569754</v>
+        <v>61.51567258277979</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>45.10208451295179</v>
+        <v>63.05319426434176</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>52.85795732661116</v>
+        <v>68.46213871541447</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>55.77724409147606</v>
+        <v>70.16738184739953</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>31.26780915198128</v>
+        <v>27.32917420121128</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>49.95388154948236</v>
+        <v>59.43159055611854</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>55.55183251395999</v>
+        <v>66.14752965860484</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>28.28998362102159</v>
+        <v>4.942520295953299</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>42.81344589948569</v>
+        <v>38.66676239734549</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>46.80295558246343</v>
+        <v>43.10934067569637</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>24.05585850931323</v>
+        <v>3.265998535053033</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>39.76765599404898</v>
+        <v>36.91874358291882</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>44.20805799244414</v>
+        <v>41.30177771206461</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>32.719998735138</v>
+        <v>10.83146617126999</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>45.55899616251141</v>
+        <v>53.91761986657255</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>49.22073446431276</v>
+        <v>59.59162396430678</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>46.90224669241066</v>
+        <v>59.24936167773483</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>54.89800805851304</v>
+        <v>67.87831225651256</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>57.8784067422616</v>
+        <v>70.42777664246755</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>33.07853788217426</v>
+        <v>19.80497722353967</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>52.22239238090092</v>
+        <v>65.24642004922306</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>57.81095001511984</v>
+        <v>69.71779846006146</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>35.00894748868483</v>
+        <v>6.141443878012016</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>49.93353770985247</v>
+        <v>45.40668514360412</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>54.13623004701354</v>
+        <v>52.22864412163746</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>30.77234783613921</v>
+        <v>6.227138360485547</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>46.91949887537621</v>
+        <v>46.5631287736183</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>51.61110628320196</v>
+        <v>51.08353440664087</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>40.26958841857124</v>
+        <v>17.70820160229517</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>53.49587859902839</v>
+        <v>66.40112643649282</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>57.35866848562174</v>
+        <v>74.9218875767659</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>55.23162486524133</v>
+        <v>82.15349888355568</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>63.48784274158168</v>
+        <v>92.50239904855836</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>66.6490843555794</v>
+        <v>97.7195326705137</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>40.80889702248204</v>
+        <v>29.6934819237347</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>60.49241333998728</v>
+        <v>82.83603286723476</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>66.40500802141671</v>
+        <v>90.78787414344525</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>13.88266207946796</v>
+        <v>5.166333223421216</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>27.14364547068558</v>
+        <v>21.12671829172596</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>30.92242169823383</v>
+        <v>22.50131841952171</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>9.728002213764704</v>
+        <v>0.6266731463361204</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>23.99151952654141</v>
+        <v>22.33923572493548</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>28.21010371564329</v>
+        <v>23.70419801074724</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>17.02843376138709</v>
+        <v>8.031665815414959</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.67652330298282</v>
+        <v>32.03219003897924</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>32.15768013535577</v>
+        <v>33.90060520669027</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>30.89529846272163</v>
+        <v>35.46490966161448</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>38.11802549986672</v>
+        <v>39.68161159645091</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>40.91611370958559</v>
+        <v>42.41819737821449</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>18.3865677520664</v>
+        <v>18.71805502292686</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>35.69473397254804</v>
+        <v>33.80192084862963</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>41.03868400556582</v>
+        <v>38.27268536296019</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>16.03896297988106</v>
+        <v>9.513724201274789</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.55255323124344</v>
+        <v>34.79522634661019</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>33.35924085478221</v>
+        <v>41.53523396533184</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>11.45996761360858</v>
+        <v>6.799505394165104</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>26.05451108093324</v>
+        <v>33.77483585881222</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>30.29175816789395</v>
+        <v>40.54367740182978</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>18.94404933927174</v>
+        <v>12.32295413359785</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>30.87010901437697</v>
+        <v>46.01975382967068</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>34.36860033274397</v>
+        <v>53.88144047515821</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>32.96560577453289</v>
+        <v>51.70245749175736</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>40.43439504956478</v>
+        <v>60.05413890960625</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>43.3008022751407</v>
+        <v>66.45376923161768</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>20.44448228473735</v>
+        <v>22.59686906062798</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>38.21965789092401</v>
+        <v>57.79601366118247</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>43.56394998994857</v>
+        <v>63.91624671346506</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>22.41492746269723</v>
+        <v>14.26096517268791</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>36.32335327691221</v>
+        <v>44.3248768621384</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>40.32173433925381</v>
+        <v>52.8800774803815</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>17.82973231129542</v>
+        <v>11.49273684838387</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>32.85169413752587</v>
+        <v>44.38319890302355</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>37.31432851505702</v>
+        <v>50.84103844208602</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>26.08968879369429</v>
+        <v>20.25166055375275</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>38.39591056489502</v>
+        <v>58.84501114772915</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>42.0745130087426</v>
+        <v>68.97824644184898</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>40.82203460572334</v>
+        <v>73.88301545589835</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>48.54550661381346</v>
+        <v>82.64818711182454</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>51.56182259043574</v>
+        <v>90.39978378389483</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>27.72191920765864</v>
+        <v>33.60395269361536</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>46.02528954020018</v>
+        <v>75.44029619152771</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>51.6621589834532</v>
+        <v>83.99220312117325</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>82.89412345508163</v>
+        <v>4.737448692034839</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>98.34840078865358</v>
+        <v>24.30432064294962</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>102.7392144073684</v>
+        <v>28.2460007255106</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>80.29347191393063</v>
+        <v>4.438302742027027</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>96.89756026782396</v>
+        <v>29.33218319597133</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>101.8151003700637</v>
+        <v>34.06250889140516</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>91.97083640498543</v>
+        <v>11.7670058754303</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>105.5180713686982</v>
+        <v>39.86050587287747</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>109.5711810712464</v>
+        <v>44.05773422465875</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>103.5641155642287</v>
+        <v>43.46897725065871</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>111.995336870839</v>
+        <v>48.26858123108792</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>115.2171787938443</v>
+        <v>51.00947609568243</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>87.14963246760568</v>
+        <v>24.7067510493437</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>107.2561849128498</v>
+        <v>42.69029731704649</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>113.4573955918701</v>
+        <v>52.07124466973322</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>85.04105689942256</v>
+        <v>6.180402902196761</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>100.799945480762</v>
+        <v>31.10848617668839</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>105.2132643983231</v>
+        <v>39.21538595101082</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>81.94958844257769</v>
+        <v>5.851341090921107</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>98.95249010367948</v>
+        <v>31.38878286484005</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>103.8802233514882</v>
+        <v>40.42383790370846</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>93.82364963618582</v>
+        <v>8.788202345727612</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>107.7055200099552</v>
+        <v>42.62655531412538</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>111.768785484226</v>
+        <v>51.69690601341587</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>105.6420163537272</v>
+        <v>49.00923202443381</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>114.3642695505951</v>
+        <v>57.50032325360962</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>117.6647214059547</v>
+        <v>65.10077136236563</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>89.22860879177841</v>
+        <v>20.93486816051947</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>109.89629147814</v>
+        <v>56.01750219433536</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>116.0841027088364</v>
+        <v>63.77356705001468</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>90.75701407854967</v>
+        <v>8.212115222918481</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>107.0038273059356</v>
+        <v>37.33401863383303</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>111.659439271212</v>
+        <v>47.54110873596767</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>87.53686969349053</v>
+        <v>8.693960878971307</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>105.0681305081411</v>
+        <v>39.50919804658689</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>110.2805729897426</v>
+        <v>48.29905683406572</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>100.2996813300086</v>
+        <v>14.84290736200862</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>114.6501112375003</v>
+        <v>53.04845437632881</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>118.9415822396101</v>
+        <v>64.72406792359756</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>113.1031663653289</v>
+        <v>71.09815773560233</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>122.1403236823926</v>
+        <v>79.60972341417157</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>125.622985358686</v>
+        <v>88.12212219238121</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>96.02616728551897</v>
+        <v>30.20954486498229</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>117.3498982009407</v>
+        <v>71.21438572598875</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>123.9049081622563</v>
+        <v>81.34241164385185</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>17.130299115248</v>
+        <v>12.7409299786704</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>30.67294914054729</v>
+        <v>40.32337366088719</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>34.45675604899515</v>
+        <v>41.67691211027785</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>13.17041389474399</v>
+        <v>12.82484132053601</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>27.73029426248881</v>
+        <v>47.44486044897702</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>31.95663321343901</v>
+        <v>48.67154164945323</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>20.7617368483732</v>
+        <v>25.15160030112459</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>32.66048223519108</v>
+        <v>61.25197747923833</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>36.14684669488871</v>
+        <v>62.92882484730153</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>34.75581962692682</v>
+        <v>62.46647049696948</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>42.09720390879291</v>
+        <v>68.26464879930634</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>44.87487718701144</v>
+        <v>69.06024725825684</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>22.03351880469342</v>
+        <v>40.995458684182</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>39.69034462161152</v>
+        <v>63.51578557116686</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>45.05633103991343</v>
+        <v>71.139185717422</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>19.01071070812286</v>
+        <v>10.59938053148153</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>32.79138986427995</v>
+        <v>43.38188250349384</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>36.58925973749903</v>
+        <v>45.71127093962473</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>14.61694658196323</v>
+        <v>7.193031442880409</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>29.49173950928772</v>
+        <v>42.18390267947213</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>33.7209960786973</v>
+        <v>44.95382179712236</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>22.37824163370569</v>
+        <v>16.54218587310653</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>34.54120031499471</v>
+        <v>58.28548127501105</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>38.0314909082152</v>
+        <v>61.55006767890423</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>36.53977235637823</v>
+        <v>61.59769379760004</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>44.11820118883051</v>
+        <v>68.81352714934542</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>46.95632603378521</v>
+        <v>71.41735760034479</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>23.82824393741987</v>
+        <v>32.00176205795635</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>41.93201079215791</v>
+        <v>70.89232702701455</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>47.27849955241533</v>
+        <v>73.71279655385958</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>25.11194780751286</v>
+        <v>12.77024199380861</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>39.27387168047737</v>
+        <v>50.48365726570415</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>43.26661924183282</v>
+        <v>54.60634012729555</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>20.68377490607281</v>
+        <v>10.11871864481332</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>35.97292237517641</v>
+        <v>51.22101448639889</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>40.43197274993644</v>
+        <v>53.73277291413282</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>29.21444148371947</v>
+        <v>23.98467112373447</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>41.74589294299696</v>
+        <v>70.77312378166104</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>45.41917029351303</v>
+        <v>76.25719947328336</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>44.09865455086215</v>
+        <v>84.72761673177749</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>51.92545927206599</v>
+        <v>93.04991886395862</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>54.91683412594214</v>
+        <v>96.10429143833211</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>30.8103020665798</v>
+        <v>41.34181380485585</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>49.42909602636678</v>
+        <v>87.07213271317998</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>55.07085886071086</v>
+        <v>92.59877114911394</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>20.32254027767461</v>
+        <v>8.820921527861934</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>34.53956191731009</v>
+        <v>38.66432194123334</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>38.49059617588314</v>
+        <v>41.47589562452282</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>16.36894362522816</v>
+        <v>7.55007796391225</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>31.68967512440506</v>
+        <v>41.88457261540405</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>36.10382928642952</v>
+        <v>44.16049094856807</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>24.56480780977028</v>
+        <v>18.71038375028678</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>37.08116776086927</v>
+        <v>57.44518896406858</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>40.71911899829392</v>
+        <v>60.90062275205082</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>38.91111178360037</v>
+        <v>62.83441085680275</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>46.64195253770598</v>
+        <v>68.47766014038567</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>49.53529103072823</v>
+        <v>70.45656162261059</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>25.2985474345245</v>
+        <v>26.9412266244188</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>43.90930476279249</v>
+        <v>58.968430244486</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>49.4852448968718</v>
+        <v>65.4939671016232</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>22.28890787363586</v>
+        <v>5.390343944609086</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>36.74774784302637</v>
+        <v>39.40103881243777</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>40.71883978783142</v>
+        <v>44.11433102666481</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>17.89916504887829</v>
+        <v>4.082800968661752</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>33.54123566218659</v>
+        <v>38.25746158057587</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>37.96377144602861</v>
+        <v>42.83058899350737</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>26.26407393289495</v>
+        <v>11.95388224938848</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>39.04981512957042</v>
+        <v>55.24331510063321</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>42.6966454686717</v>
+        <v>61.22338573969036</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>40.76862390372217</v>
+        <v>60.39250508579339</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>48.73967345527487</v>
+        <v>69.04216407462795</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>51.69284709739854</v>
+        <v>72.3667818028169</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>27.16634669640892</v>
+        <v>20.71349173735651</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>46.23144879056414</v>
+        <v>66.65730167422078</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>51.79642120002789</v>
+        <v>71.1830634559274</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>28.94763814101541</v>
+        <v>6.137388711053116</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>43.79794659832062</v>
+        <v>45.06377230966741</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>47.98063858736958</v>
+        <v>52.19676392475066</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>24.56479685023587</v>
+        <v>5.524004916125758</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>40.6312629581874</v>
+        <v>45.72943923145432</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>45.30364289011671</v>
+        <v>50.46155297337287</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>33.7461078510002</v>
+        <v>17.10169242397982</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>46.90984594035763</v>
+        <v>65.38554687359154</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>50.75664201718754</v>
+        <v>74.24531883960147</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>49.01568495023218</v>
+        <v>80.40992363581034</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>57.24109241444679</v>
+        <v>90.11386631750983</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>60.37358748734284</v>
+        <v>96.14014714130749</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>34.82309681746843</v>
+        <v>27.87213129367749</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>54.41456559222023</v>
+        <v>80.59384920107415</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>60.30171797029048</v>
+        <v>88.7162656012313</v>
       </c>
     </row>
   </sheetData>
